--- a/biology/Médecine/Complications_de_l'anesthésie/Complications_de_l'anesthésie.xlsx
+++ b/biology/Médecine/Complications_de_l'anesthésie/Complications_de_l'anesthésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Complications_de_l%27anesth%C3%A9sie</t>
+          <t>Complications_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les complications de l'anesthésie se divisent en deux groupes : les complications mineures (ou incidents), fréquentes et le plus souvent sans conséquences et les complications majeures (ou accidents), plus rares. Ces dernières ont diminué en France d'un facteur 10 depuis les décrets de 1994 relatifs à la sécurité. La mortalité totalement liée à l'anesthésie est estimée à un décès pour 140 000 actes, sur environ dix millions d'actes d'anesthésie par an en France. Le concept de récupération rapide après chirurgie introduit par le Pr Kehlet permet de son côté de réduire les complications périopératoires, y compris celles liées à l'anesthésie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Complications_de_l%27anesth%C3%A9sie</t>
+          <t>Complications_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Complications respiratoires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’agit des complications les plus fréquentes et de la première cause de mortalité. Une ventilation inadéquate en est la cause dans 1/3 des cas, le plus souvent à l'induction, plus rarement en per ou postopératoire.
 Le problème peut venir de l’anesthésie, de la chirurgie ou du patient. La conséquence étant dans tous les cas l’hypoxie.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Complications_de_l%27anesth%C3%A9sie</t>
+          <t>Complications_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Complications cardiovasculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elles sont peu fréquentes (1 à 2 %), mais mettent en jeu le pronostic vital. Les complications les plus fréquentes sont l’ischémie myocardique et l’infarctus du myocarde (IDM), l’insuffisance cardiaque et les troubles du rythme. L’hypotension artérielle (hypoTA) voire le collapsus peropératoire en est le plus souvent la cause.
 L’hypoTA modérée est fréquente, notamment à l’induction anesthésique. Les causes d’hypotension artérielle sont multiples :
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Complications_de_l%27anesth%C3%A9sie</t>
+          <t>Complications_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Complications neurologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit principalement d'accidents vasculaires cérébraux, il est le plus souvent bien difficile de les imputer directement et uniquement à l'anesthésie bien conduite. Les atteintes du névraxe se limitent presque aux compressions rachidiennes par hématome extra-dural après abord rachidien en présence d'anomalies de l'hémostase. Il est en revanche beaucoup plus fréquent d'être confronté à des lésions neurologiques périphériques par mauvais positionnement postural durant l'anesthésie. Sont alors concernés les nerfs les plus superficiels (ulnaire, fibulaire commun), le plexus brachial et les racines lombosacrées.
 </t>
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Complications_de_l%27anesth%C3%A9sie</t>
+          <t>Complications_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,7 +647,9 @@
           <t>Complications allergiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont celles que redoutent le plus les patients. Elles sont rares (1/13 000). L'allergie aux curares est la plus fréquente (300 cas annuels en France), suivie par les hypnotiques et morphiniques, puis le latex et les antibiotiques. Un premier contact sensibilisant n'est pas obligatoire.
 Les facteurs de risque sont : un antécédent d'accident anesthésique, une allergie au latex, l'atopie, certaines allergies alimentaires. Ces patients doivent être explorés.
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Complications_de_l%27anesth%C3%A9sie</t>
+          <t>Complications_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Complications spécifiques de l’anesthésie locoregionale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lésions plexiques ou tronculaires directes, responsables de déficits moteurs ou sensitifs, de paresthésies (par l'aiguille de ponction ou injection intra-neurale d'anesthésique).
 Céphalées après anesthésie médullaire avec effraction de la dure-mère.
@@ -676,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Complications_de_l%27anesth%C3%A9sie</t>
+          <t>Complications_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -694,7 +716,9 @@
           <t>Complications liées à la posture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Elles doivent être prévenues par une installation soigneuse avant de commencer la chirurgie, il s'agit d'une responsabilité partagée par l'anesthésiste et le chirurgien.
 Décubitus latéral : compression de la veine cave inférieure, modification des rapports ventilation/perfusion au niveau des poumons, lésions du plexus brachial.
@@ -711,7 +735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Complications_de_l%27anesth%C3%A9sie</t>
+          <t>Complications_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,7 +753,9 @@
           <t>Autres complications</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyperthermie maligne : c’est une complication rare déclenchée par les agents anesthésiques halogénés inhalés (AAH) et l'iodure de suxaméthonium (Célocurine), chez des sujets génétiquement prédisposés. Elle requiert une prise en charge rapide et précise pour essayer de contrôler la température centrale, avec un support pharmacologique indispensable : le dantrolène (Dantrium).
 Hépatites : aux AAH, devenues exceptionnelles avec les nouvelles molécules.
